--- a/WorkBot/refactor/data/orders/Webstaurant/CompletedOrders/Webstaurant_Bakery_2025-08-30.xlsx
+++ b/WorkBot/refactor/data/orders/Webstaurant/CompletedOrders/Webstaurant_Bakery_2025-08-30.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +511,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>229.47</t>
+          <t>688.41</t>
         </is>
       </c>
     </row>
@@ -765,6 +765,303 @@
       <c r="E13" t="inlineStr">
         <is>
           <t>43.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>8808604CS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Torani - White Chocolate Sauce</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>76.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>8808605CS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Torani - Dark Chocolate Sauce</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>69.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>839.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>104ADWHEYPRKT</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Supplement - Whey Protein</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>316.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>316.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>104ADANTIKT5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Supplement - Antioxident</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>478.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>478.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>245S12FU12RCBL</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cake Drum - 12" (silver)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>711RGRMCRK50</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Graham Cracker - Crumb</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>116.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>116.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>113PNWHRW5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nuts - Pine</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>204.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>613.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>24510102CB</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Box Cake - 10x10x2.5</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>66.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>66.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>24510105CB</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Box Cake - 10x10x5</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>150300865</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bag Paper - 6x13.5 Window</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>319.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>588MILK632</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Urnex - Rinza</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>431.76</t>
         </is>
       </c>
     </row>
